--- a/Master File.xlsx
+++ b/Master File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2096\Downloads\Profitability Checking 2026\02. Profitability checking Versi Single\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2871225-D619-44C3-97D3-3E7C6B1CAE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8D6613-BC42-4811-BDD1-7E9582DA82AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{A1FD0D60-715D-45B8-BDA1-CEF0CAAA4609}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>FIRE</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>OR_Cap</t>
+  </si>
+  <si>
+    <t>%pool</t>
+  </si>
+  <si>
+    <t>Amount_Pool</t>
+  </si>
+  <si>
+    <t>Komisi_Pool</t>
   </si>
 </sst>
 </file>
@@ -240,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +317,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -330,6 +345,27 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -647,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45D1548-4A15-4182-837C-4AF0F7C67E82}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,9 +694,12 @@
     <col min="1" max="1" width="57.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -670,8 +709,17 @@
       <c r="C1" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,8 +729,17 @@
       <c r="C2" s="5">
         <v>350000000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E2" s="14">
+        <v>500000000</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -692,8 +749,17 @@
       <c r="C3" s="5">
         <v>350000000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>100000000000</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -703,8 +769,17 @@
       <c r="C4" s="5">
         <v>350000000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>100000000000</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,8 +789,17 @@
       <c r="C5" s="5">
         <v>350000000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>500000000</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -725,8 +809,17 @@
       <c r="C6" s="5">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -736,8 +829,17 @@
       <c r="C7" s="6">
         <v>300000000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -747,8 +849,17 @@
       <c r="C8" s="6">
         <v>300000000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -758,8 +869,17 @@
       <c r="C9" s="6">
         <v>300000000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -769,8 +889,17 @@
       <c r="C10" s="6">
         <v>300000000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -780,8 +909,17 @@
       <c r="C11" s="6">
         <v>300000000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -791,8 +929,17 @@
       <c r="C12" s="6">
         <v>300000000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -802,8 +949,17 @@
       <c r="C13" s="6">
         <v>300000000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -813,8 +969,17 @@
       <c r="C14" s="6">
         <v>300000000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -824,8 +989,17 @@
       <c r="C15" s="5">
         <v>30000000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -835,8 +1009,17 @@
       <c r="C16" s="5">
         <v>30000000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -846,8 +1029,17 @@
       <c r="C17" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -857,8 +1049,17 @@
       <c r="C18" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -868,8 +1069,17 @@
       <c r="C19" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -879,8 +1089,17 @@
       <c r="C20" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -890,8 +1109,17 @@
       <c r="C21" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -901,8 +1129,17 @@
       <c r="C22" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -912,8 +1149,17 @@
       <c r="C23" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -923,8 +1169,17 @@
       <c r="C24" s="5">
         <v>90000000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -934,8 +1189,17 @@
       <c r="C25" s="5">
         <v>90000000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -945,8 +1209,17 @@
       <c r="C26" s="5">
         <v>90000000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -956,8 +1229,17 @@
       <c r="C27" s="5">
         <v>90000000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
@@ -967,8 +1249,17 @@
       <c r="C28" s="5">
         <v>90000000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -978,8 +1269,17 @@
       <c r="C29" s="5">
         <v>90000000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -989,8 +1289,17 @@
       <c r="C30" s="5">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -1000,8 +1309,17 @@
       <c r="C31" s="5">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -1011,8 +1329,17 @@
       <c r="C32" s="5">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -1022,8 +1349,17 @@
       <c r="C33" s="5">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>47</v>
       </c>
@@ -1033,8 +1369,17 @@
       <c r="C34" s="5">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -1044,8 +1389,17 @@
       <c r="C35" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -1055,8 +1409,17 @@
       <c r="C36" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -1066,8 +1429,17 @@
       <c r="C37" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -1077,8 +1449,17 @@
       <c r="C38" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -1088,8 +1469,17 @@
       <c r="C39" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1099,8 +1489,17 @@
       <c r="C40" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40" s="13">
+        <v>0</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1509,17 @@
       <c r="C41" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -1121,8 +1529,17 @@
       <c r="C42" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -1132,8 +1549,17 @@
       <c r="C43" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
@@ -1143,8 +1569,17 @@
       <c r="C44" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44" s="13">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -1154,8 +1589,17 @@
       <c r="C45" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45" s="13">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -1165,8 +1609,17 @@
       <c r="C46" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1629,17 @@
       <c r="C47" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47" s="13">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -1187,8 +1649,17 @@
       <c r="C48" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48" s="13">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -1198,8 +1669,17 @@
       <c r="C49" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
@@ -1209,8 +1689,17 @@
       <c r="C50" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50" s="13">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -1220,8 +1709,17 @@
       <c r="C51" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0</v>
+      </c>
+      <c r="F51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
@@ -1231,8 +1729,17 @@
       <c r="C52" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -1242,8 +1749,17 @@
       <c r="C53" s="5">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -1252,6 +1768,15 @@
       </c>
       <c r="C54" s="5">
         <v>80000000000</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+      <c r="F54" s="15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
